--- a/Data/T/TurbidityCorrection.xlsx
+++ b/Data/T/TurbidityCorrection.xlsx
@@ -47,7 +47,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,12 +125,12 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
